--- a/JSP SERVLET/나 볼려고.xlsx
+++ b/JSP SERVLET/나 볼려고.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\JSP SERVLET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\neo\JSP SERVLET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498BC50E-BB23-4189-A5B7-E6C6DA8EDB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DD95E5-05F6-452E-BA8B-8C412D3A8CB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1200" windowWidth="20340" windowHeight="14145" activeTab="2" xr2:uid="{81AC7818-2C32-4CCB-B1B2-FAFE2A978278}"/>
+    <workbookView xWindow="240" yWindow="780" windowWidth="18120" windowHeight="12540" activeTab="2" xr2:uid="{81AC7818-2C32-4CCB-B1B2-FAFE2A978278}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,6 +636,18 @@
   </si>
   <si>
     <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속 수정 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속 추가 수정 중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2004,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25689230-3EEA-46BC-A03D-85A954622CA4}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2015,9 +2022,10 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="48.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2027,8 +2035,11 @@
       <c r="C1" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -2040,7 +2051,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A18" si="0">ROW()-1</f>
         <v>2</v>
@@ -2051,8 +2062,11 @@
       <c r="C3" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="132" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2063,8 +2077,11 @@
       <c r="C4" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2072,8 +2089,14 @@
       <c r="B5" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2081,8 +2104,11 @@
       <c r="B6" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2090,8 +2116,11 @@
       <c r="B7" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2099,8 +2128,14 @@
       <c r="B8" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2108,8 +2143,11 @@
       <c r="B9" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2118,7 +2156,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2127,7 +2165,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2136,7 +2174,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2144,8 +2182,11 @@
       <c r="B13" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2154,7 +2195,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2163,7 +2204,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2198,5 +2239,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JSP SERVLET/나 볼려고.xlsx
+++ b/JSP SERVLET/나 볼려고.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\neo\JSP SERVLET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\neo\JSP SERVLET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DD95E5-05F6-452E-BA8B-8C412D3A8CB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AE78E8-6ACA-4261-A4AA-CB8AE1091B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="780" windowWidth="18120" windowHeight="12540" activeTab="2" xr2:uid="{81AC7818-2C32-4CCB-B1B2-FAFE2A978278}"/>
+    <workbookView xWindow="2145" yWindow="615" windowWidth="20340" windowHeight="14130" activeTab="2" xr2:uid="{81AC7818-2C32-4CCB-B1B2-FAFE2A978278}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="158">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,6 +653,18 @@
   </si>
   <si>
     <t>계속 추가 수정 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록가기, 글 관련 DML 이후에도 유지해야 하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예제 코드 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적인 tile 조합 생각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,6 +726,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1072,7 +1092,7 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1090,7 +1110,7 @@
         <f t="shared" ref="A3:A37" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,7 +1126,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1122,7 +1142,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1140,7 +1160,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1156,7 +1176,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1192,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,7 +1208,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1204,7 +1224,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1222,7 +1242,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1238,7 +1258,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1254,7 +1274,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>148</v>
       </c>
@@ -1270,7 +1290,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1288,7 +1308,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1304,7 +1324,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
@@ -1320,7 +1340,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>73</v>
       </c>
@@ -1336,7 +1356,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1352,7 +1372,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1368,7 +1388,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1381,7 +1401,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1397,7 +1417,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>140</v>
       </c>
@@ -1413,7 +1433,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1429,7 +1449,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1445,7 +1465,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1461,7 +1481,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
@@ -1477,7 +1497,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1496,7 +1516,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1512,7 +1532,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="1" t="s">
         <v>62</v>
       </c>
@@ -1528,7 +1548,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1544,7 +1564,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="1" t="s">
         <v>77</v>
       </c>
@@ -1558,7 +1578,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1574,7 +1594,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
         <v>54</v>
       </c>
@@ -1590,7 +1610,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
         <v>56</v>
       </c>
@@ -1606,7 +1626,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
         <v>64</v>
       </c>
@@ -1622,7 +1642,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
         <v>66</v>
       </c>
@@ -1638,7 +1658,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="1" t="s">
         <v>68</v>
       </c>
@@ -1653,21 +1673,21 @@
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1726,10 +1746,10 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D2" t="s">
@@ -1744,8 +1764,8 @@
         <f t="shared" ref="A3:A20" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" t="s">
         <v>90</v>
       </c>
@@ -1758,8 +1778,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" t="s">
         <v>91</v>
       </c>
@@ -1772,8 +1792,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" t="s">
         <v>93</v>
       </c>
@@ -1786,8 +1806,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" t="s">
         <v>94</v>
       </c>
@@ -1800,8 +1820,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" t="s">
         <v>96</v>
       </c>
@@ -1814,8 +1834,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" t="s">
         <v>105</v>
       </c>
@@ -1828,8 +1848,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" t="s">
         <v>106</v>
       </c>
@@ -1842,8 +1862,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" t="s">
         <v>107</v>
       </c>
@@ -1856,7 +1876,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1874,8 +1894,8 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D12" t="s">
@@ -1890,8 +1910,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" t="s">
         <v>103</v>
       </c>
@@ -1904,8 +1924,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" t="s">
         <v>104</v>
       </c>
@@ -1918,8 +1938,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" t="s">
         <v>113</v>
       </c>
@@ -1932,8 +1952,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" t="s">
         <v>120</v>
       </c>
@@ -1946,8 +1966,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" t="s">
         <v>121</v>
       </c>
@@ -1960,8 +1980,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" t="s">
         <v>115</v>
       </c>
@@ -1974,8 +1994,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" t="s">
         <v>117</v>
       </c>
@@ -1988,8 +2008,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" t="s">
         <v>124</v>
       </c>
@@ -2013,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25689230-3EEA-46BC-A03D-85A954622CA4}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2022,7 +2042,7 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="48.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="44.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2053,7 +2073,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A18" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A19" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2155,6 +2175,9 @@
       <c r="B10" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -2164,6 +2187,9 @@
       <c r="B11" s="4" t="s">
         <v>133</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -2173,6 +2199,9 @@
       <c r="B12" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -2194,6 +2223,12 @@
       <c r="B14" s="4" t="s">
         <v>136</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -2203,6 +2238,12 @@
       <c r="B15" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -2213,7 +2254,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2222,7 +2263,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2231,9 +2272,19 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>126</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/JSP SERVLET/나 볼려고.xlsx
+++ b/JSP SERVLET/나 볼려고.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\neo\JSP SERVLET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\neo\JSP SERVLET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AE78E8-6ACA-4261-A4AA-CB8AE1091B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85BD2D0-7889-4DCD-BCB9-4DBF88FBF582}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="615" windowWidth="20340" windowHeight="14130" activeTab="2" xr2:uid="{81AC7818-2C32-4CCB-B1B2-FAFE2A978278}"/>
+    <workbookView xWindow="240" yWindow="780" windowWidth="18120" windowHeight="12540" xr2:uid="{81AC7818-2C32-4CCB-B1B2-FAFE2A978278}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="157">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,10 +656,6 @@
   </si>
   <si>
     <t>예제 코드 이용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동적인 tile 조합 생각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1052,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C5EE88-24E9-472F-A882-FD3823539CEE}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
@@ -2033,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25689230-3EEA-46BC-A03D-85A954622CA4}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2239,10 +2230,7 @@
         <v>137</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">

--- a/JSP SERVLET/나 볼려고.xlsx
+++ b/JSP SERVLET/나 볼려고.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\neo\JSP SERVLET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\neo\JSP SERVLET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85BD2D0-7889-4DCD-BCB9-4DBF88FBF582}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332DB791-5890-4E9D-B73E-80E872CF3AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="780" windowWidth="18120" windowHeight="12540" xr2:uid="{81AC7818-2C32-4CCB-B1B2-FAFE2A978278}"/>
+    <workbookView xWindow="660" yWindow="750" windowWidth="20340" windowHeight="14130" activeTab="2" xr2:uid="{81AC7818-2C32-4CCB-B1B2-FAFE2A978278}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="157">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1043,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C5EE88-24E9-472F-A882-FD3823539CEE}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
@@ -2024,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25689230-3EEA-46BC-A03D-85A954622CA4}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2241,6 +2246,9 @@
       <c r="B16" s="4" t="s">
         <v>147</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">

--- a/JSP SERVLET/나 볼려고.xlsx
+++ b/JSP SERVLET/나 볼려고.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\neo\JSP SERVLET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332DB791-5890-4E9D-B73E-80E872CF3AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A9BAF9-CD4B-480D-9C42-7DBA57D6092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="750" windowWidth="20340" windowHeight="14130" activeTab="2" xr2:uid="{81AC7818-2C32-4CCB-B1B2-FAFE2A978278}"/>
+    <workbookView minimized="1" xWindow="7215" yWindow="435" windowWidth="20340" windowHeight="14130" xr2:uid="{81AC7818-2C32-4CCB-B1B2-FAFE2A978278}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="158">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,6 +661,10 @@
   </si>
   <si>
     <t>예제 코드 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 수정 삭제는 제외</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,6 +726,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1046,11 +1053,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C5EE88-24E9-472F-A882-FD3823539CEE}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1061,9 +1068,10 @@
     <col min="4" max="4" width="52.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,13 +1090,16 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1097,48 +1108,57 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A37" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1147,80 +1167,95 @@
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1229,64 +1264,79 @@
       <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="G12" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1295,38 +1345,47 @@
       <c r="D14" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>71</v>
       </c>
@@ -1336,13 +1395,16 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>71</v>
       </c>
@@ -1352,13 +1414,16 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1368,13 +1433,16 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>71</v>
       </c>
@@ -1384,26 +1452,32 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>71</v>
       </c>
@@ -1413,13 +1487,16 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>71</v>
       </c>
@@ -1429,13 +1506,16 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>71</v>
       </c>
@@ -1445,13 +1525,16 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>71</v>
       </c>
@@ -1461,13 +1544,16 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>71</v>
       </c>
@@ -1477,13 +1563,16 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>71</v>
       </c>
@@ -1493,7 +1582,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1502,7 +1591,9 @@
       <c r="D27" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>70</v>
       </c>
@@ -1512,13 +1603,16 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>71</v>
       </c>
@@ -1528,13 +1622,16 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>70</v>
       </c>
@@ -1544,13 +1641,16 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>70</v>
       </c>
@@ -1560,13 +1660,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1574,13 +1677,16 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>70</v>
       </c>
@@ -1590,13 +1696,16 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="E33" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>70</v>
       </c>
@@ -1606,13 +1715,16 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="E34" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>70</v>
       </c>
@@ -1622,13 +1734,16 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>70</v>
       </c>
@@ -1638,13 +1753,16 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="E36" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>70</v>
       </c>
@@ -1654,7 +1772,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="1" t="s">
         <v>68</v>
       </c>
@@ -1669,21 +1787,21 @@
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1742,10 +1860,10 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D2" t="s">
@@ -1760,8 +1878,8 @@
         <f t="shared" ref="A3:A20" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" t="s">
         <v>90</v>
       </c>
@@ -1774,8 +1892,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" t="s">
         <v>91</v>
       </c>
@@ -1788,8 +1906,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>93</v>
       </c>
@@ -1802,8 +1920,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" t="s">
         <v>94</v>
       </c>
@@ -1816,8 +1934,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" t="s">
         <v>96</v>
       </c>
@@ -1830,8 +1948,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" t="s">
         <v>105</v>
       </c>
@@ -1844,8 +1962,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" t="s">
         <v>106</v>
       </c>
@@ -1858,8 +1976,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" t="s">
         <v>107</v>
       </c>
@@ -1872,7 +1990,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1890,8 +2008,8 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D12" t="s">
@@ -1906,8 +2024,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>103</v>
       </c>
@@ -1920,8 +2038,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" t="s">
         <v>104</v>
       </c>
@@ -1934,8 +2052,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="D15" t="s">
         <v>113</v>
       </c>
@@ -1948,8 +2066,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" t="s">
         <v>120</v>
       </c>
@@ -1962,8 +2080,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" t="s">
         <v>121</v>
       </c>
@@ -1976,8 +2094,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" t="s">
         <v>115</v>
       </c>
@@ -1990,8 +2108,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" t="s">
         <v>117</v>
       </c>
@@ -2004,8 +2122,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" t="s">
         <v>124</v>
       </c>
@@ -2029,7 +2147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25689230-3EEA-46BC-A03D-85A954622CA4}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
